--- a/data/trans_orig/IP05A02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP05A02-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA20C4BC-8D5B-41F4-9F51-A6B3CA6EE0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{533E2AC3-01BA-4592-9BCE-61F58353B993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DB9A42DC-30E0-4AF5-92A9-84DAEAE43F22}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F04268C5-B0FF-4A41-BCEA-F4E8DAE9A7EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="519">
   <si>
     <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>73,14%</t>
   </si>
   <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
   </si>
   <si>
     <t>72,63%</t>
   </si>
   <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
   </si>
   <si>
     <t>72,9%</t>
   </si>
   <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -107,28 +107,28 @@
     <t>19,83%</t>
   </si>
   <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
   </si>
   <si>
     <t>21,28%</t>
   </si>
   <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
   </si>
   <si>
     <t>20,5%</t>
   </si>
   <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -137,1435 +137,1423 @@
     <t>7,03%</t>
   </si>
   <si>
-    <t>3,75%</t>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2016 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
   </si>
   <si>
     <t>11,17%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2015 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
     <t>90,55%</t>
   </si>
   <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
   </si>
   <si>
     <t>89,94%</t>
   </si>
   <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
   </si>
   <si>
     <t>90,26%</t>
   </si>
   <si>
-    <t>88,04%</t>
+    <t>88,27%</t>
   </si>
   <si>
     <t>91,72%</t>
@@ -1574,28 +1562,25 @@
     <t>6,5%</t>
   </si>
   <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
+    <t>4,94%</t>
   </si>
   <si>
     <t>7,67%</t>
   </si>
   <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
   </si>
   <si>
     <t>2,94%</t>
   </si>
   <si>
-    <t>4,18%</t>
+    <t>4,22%</t>
   </si>
   <si>
     <t>2,39%</t>
@@ -1604,13 +1589,13 @@
     <t>1,5%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
   </si>
 </sst>
 </file>
@@ -2022,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4012F91C-5B56-401D-9DEC-F8C1F90E2406}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE25AF64-1FAF-444B-BD55-40896E4A4BDC}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2373,7 +2358,7 @@
         <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="M8" s="7">
         <v>587</v>
@@ -2382,13 +2367,13 @@
         <v>390621</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2403,13 +2388,13 @@
         <v>40846</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>79</v>
@@ -2418,13 +2403,13 @@
         <v>53364</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>140</v>
@@ -2433,13 +2418,13 @@
         <v>94209</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,13 +2439,13 @@
         <v>9150</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -2469,13 +2454,13 @@
         <v>10444</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -2484,13 +2469,13 @@
         <v>19594</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2546,7 +2531,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2558,13 +2543,13 @@
         <v>107004</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>140</v>
@@ -2573,13 +2558,13 @@
         <v>94515</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>299</v>
@@ -2588,13 +2573,13 @@
         <v>201519</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,13 +2594,13 @@
         <v>27472</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -2624,13 +2609,13 @@
         <v>28527</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M13" s="7">
         <v>86</v>
@@ -2639,13 +2624,13 @@
         <v>55999</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,13 +2645,13 @@
         <v>6344</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -2675,13 +2660,13 @@
         <v>4506</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -2690,13 +2675,13 @@
         <v>10850</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2752,7 +2737,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2764,13 +2749,13 @@
         <v>162354</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>220</v>
@@ -2779,13 +2764,13 @@
         <v>148366</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>464</v>
@@ -2794,13 +2779,13 @@
         <v>310719</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,13 +2800,13 @@
         <v>36265</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -2830,13 +2815,13 @@
         <v>33898</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>104</v>
@@ -2845,13 +2830,13 @@
         <v>70163</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,13 +2851,13 @@
         <v>7430</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -2881,13 +2866,13 @@
         <v>11833</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>28</v>
@@ -2896,13 +2881,13 @@
         <v>19263</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,13 +2955,13 @@
         <v>560554</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>759</v>
@@ -2985,13 +2970,13 @@
         <v>507869</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>1600</v>
@@ -3000,13 +2985,13 @@
         <v>1068423</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,13 +3006,13 @@
         <v>128652</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H21" s="7">
         <v>206</v>
@@ -3036,13 +3021,13 @@
         <v>138287</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M21" s="7">
         <v>400</v>
@@ -3051,13 +3036,13 @@
         <v>266938</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,13 +3057,13 @@
         <v>31454</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>50</v>
@@ -3087,13 +3072,13 @@
         <v>33226</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>98</v>
@@ -3102,13 +3087,13 @@
         <v>64680</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,7 +3149,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3184,7 +3169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F9F650-40F1-4ABD-934A-223333DB5639}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36E2A2C-2230-46DB-BCBE-AD5BE104B18C}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3201,7 +3186,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3308,13 +3293,13 @@
         <v>124780</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H4" s="7">
         <v>186</v>
@@ -3323,13 +3308,13 @@
         <v>123916</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M4" s="7">
         <v>362</v>
@@ -3338,13 +3323,13 @@
         <v>248696</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,13 +3344,13 @@
         <v>17118</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H5" s="7">
         <v>26</v>
@@ -3374,13 +3359,13 @@
         <v>18393</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M5" s="7">
         <v>51</v>
@@ -3389,13 +3374,13 @@
         <v>35510</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,13 +3395,13 @@
         <v>4093</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -3425,13 +3410,13 @@
         <v>4452</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -3440,13 +3425,13 @@
         <v>8545</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,13 +3499,13 @@
         <v>221655</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H8" s="7">
         <v>283</v>
@@ -3529,13 +3514,13 @@
         <v>198022</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M8" s="7">
         <v>592</v>
@@ -3544,13 +3529,13 @@
         <v>419677</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,13 +3550,13 @@
         <v>37711</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H9" s="7">
         <v>48</v>
@@ -3580,13 +3565,13 @@
         <v>32226</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="M9" s="7">
         <v>101</v>
@@ -3595,13 +3580,13 @@
         <v>69937</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,13 +3601,13 @@
         <v>9625</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -3631,13 +3616,13 @@
         <v>6001</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -3646,13 +3631,13 @@
         <v>15627</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,7 +3693,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3720,13 +3705,13 @@
         <v>131292</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H12" s="7">
         <v>194</v>
@@ -3735,13 +3720,13 @@
         <v>136359</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M12" s="7">
         <v>383</v>
@@ -3750,13 +3735,13 @@
         <v>267651</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,13 +3756,13 @@
         <v>22980</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>22</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -3786,13 +3771,13 @@
         <v>14977</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -3801,13 +3786,13 @@
         <v>37958</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,13 +3807,13 @@
         <v>4298</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -3837,13 +3822,13 @@
         <v>5707</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -3852,13 +3837,13 @@
         <v>10005</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,7 +3899,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3926,13 +3911,13 @@
         <v>156542</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H16" s="7">
         <v>192</v>
@@ -3941,13 +3926,13 @@
         <v>134364</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="M16" s="7">
         <v>422</v>
@@ -3956,13 +3941,13 @@
         <v>290907</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,13 +3962,13 @@
         <v>18584</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H17" s="7">
         <v>37</v>
@@ -3992,13 +3977,13 @@
         <v>27015</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="M17" s="7">
         <v>65</v>
@@ -4007,13 +3992,13 @@
         <v>45599</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4013,13 @@
         <v>4829</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>171</v>
+        <v>244</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -4043,13 +4028,13 @@
         <v>9189</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -4058,13 +4043,13 @@
         <v>14018</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,13 +4117,13 @@
         <v>634269</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H20" s="7">
         <v>855</v>
@@ -4147,13 +4132,13 @@
         <v>592662</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="M20" s="7">
         <v>1759</v>
@@ -4162,13 +4147,13 @@
         <v>1226931</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4168,13 @@
         <v>96392</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H21" s="7">
         <v>132</v>
@@ -4198,13 +4183,13 @@
         <v>92612</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>188</v>
+        <v>265</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M21" s="7">
         <v>271</v>
@@ -4213,13 +4198,13 @@
         <v>189004</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4219,13 @@
         <v>22845</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>61</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -4249,13 +4234,13 @@
         <v>25350</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>277</v>
+        <v>224</v>
       </c>
       <c r="M22" s="7">
         <v>68</v>
@@ -4264,13 +4249,13 @@
         <v>48195</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,7 +4311,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4346,7 +4331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A117DC-1F38-4F2F-8093-6D7C7C76F32C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB078811-F597-4268-ACA8-B3BE5238CC68}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4363,7 +4348,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4470,13 +4455,13 @@
         <v>110091</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H4" s="7">
         <v>184</v>
@@ -4485,13 +4470,13 @@
         <v>113900</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M4" s="7">
         <v>348</v>
@@ -4500,13 +4485,13 @@
         <v>223991</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4506,13 @@
         <v>12424</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>96</v>
+        <v>288</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H5" s="7">
         <v>22</v>
@@ -4536,13 +4521,13 @@
         <v>13980</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M5" s="7">
         <v>43</v>
@@ -4551,13 +4536,13 @@
         <v>26404</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,13 +4557,13 @@
         <v>1649</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>299</v>
+        <v>196</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -4587,13 +4572,13 @@
         <v>3774</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -4602,13 +4587,13 @@
         <v>5423</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>306</v>
+        <v>219</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,13 +4661,13 @@
         <v>230579</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H8" s="7">
         <v>292</v>
@@ -4691,13 +4676,13 @@
         <v>185834</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M8" s="7">
         <v>632</v>
@@ -4706,13 +4691,13 @@
         <v>416413</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,13 +4712,13 @@
         <v>22599</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H9" s="7">
         <v>29</v>
@@ -4742,13 +4727,13 @@
         <v>17973</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="M9" s="7">
         <v>61</v>
@@ -4757,13 +4742,13 @@
         <v>40572</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,13 +4763,13 @@
         <v>4883</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -4793,13 +4778,13 @@
         <v>6139</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -4808,13 +4793,13 @@
         <v>11022</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>333</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,7 +4855,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4882,13 +4867,13 @@
         <v>160574</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>50</v>
+        <v>329</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H12" s="7">
         <v>238</v>
@@ -4897,13 +4882,13 @@
         <v>165798</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="M12" s="7">
         <v>463</v>
@@ -4912,13 +4897,13 @@
         <v>326372</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,13 +4918,13 @@
         <v>21134</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -4948,13 +4933,13 @@
         <v>18031</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -4963,13 +4948,13 @@
         <v>39166</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>111</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4984,13 +4969,13 @@
         <v>6864</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -4999,13 +4984,13 @@
         <v>5070</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -5014,13 +4999,13 @@
         <v>11933</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,7 +5061,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5088,13 +5073,13 @@
         <v>153244</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H16" s="7">
         <v>210</v>
@@ -5103,13 +5088,13 @@
         <v>147544</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M16" s="7">
         <v>417</v>
@@ -5118,13 +5103,13 @@
         <v>300788</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,13 +5124,13 @@
         <v>18395</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -5154,13 +5139,13 @@
         <v>18955</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>371</v>
+        <v>292</v>
       </c>
       <c r="M17" s="7">
         <v>52</v>
@@ -5169,13 +5154,13 @@
         <v>37349</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,13 +5175,13 @@
         <v>2409</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>376</v>
+        <v>296</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>377</v>
+        <v>32</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -5205,13 +5190,13 @@
         <v>5634</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -5220,13 +5205,13 @@
         <v>8043</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5294,13 +5279,13 @@
         <v>654487</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="H20" s="7">
         <v>924</v>
@@ -5309,13 +5294,13 @@
         <v>613077</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="M20" s="7">
         <v>1860</v>
@@ -5324,13 +5309,13 @@
         <v>1267563</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5345,13 +5330,13 @@
         <v>74552</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>393</v>
+        <v>314</v>
       </c>
       <c r="H21" s="7">
         <v>104</v>
@@ -5360,13 +5345,13 @@
         <v>68939</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="M21" s="7">
         <v>211</v>
@@ -5375,13 +5360,13 @@
         <v>143491</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,13 +5381,13 @@
         <v>15805</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -5411,13 +5396,13 @@
         <v>20617</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>197</v>
+        <v>397</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="M22" s="7">
         <v>53</v>
@@ -5426,13 +5411,13 @@
         <v>36422</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>95</v>
+        <v>399</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5488,7 +5473,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -5508,7 +5493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA74E17-4EC2-4D43-B59A-A1D469F04416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76ABC51E-768E-4B24-8980-31691A1E9642}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5525,7 +5510,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5632,13 +5617,13 @@
         <v>51038</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H4" s="7">
         <v>95</v>
@@ -5647,13 +5632,13 @@
         <v>49284</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M4" s="7">
         <v>198</v>
@@ -5662,13 +5647,13 @@
         <v>100321</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>286</v>
+        <v>410</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,13 +5668,13 @@
         <v>5012</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>254</v>
+        <v>413</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -5698,13 +5683,13 @@
         <v>5602</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -5713,13 +5698,13 @@
         <v>10613</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,7 +5719,7 @@
         <v>2453</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>274</v>
+        <v>421</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>422</v>
@@ -5752,10 +5737,10 @@
         <v>424</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
@@ -5764,13 +5749,13 @@
         <v>4937</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,13 +5823,13 @@
         <v>155518</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="H8" s="7">
         <v>237</v>
@@ -5853,13 +5838,13 @@
         <v>144995</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="M8" s="7">
         <v>484</v>
@@ -5868,13 +5853,13 @@
         <v>300512</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5889,13 +5874,13 @@
         <v>14547</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="H9" s="7">
         <v>13</v>
@@ -5904,13 +5889,13 @@
         <v>7764</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>442</v>
+        <v>353</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>443</v>
+        <v>66</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="M9" s="7">
         <v>35</v>
@@ -5919,13 +5904,13 @@
         <v>22311</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>447</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,13 +5925,13 @@
         <v>5234</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>449</v>
+        <v>115</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -5955,13 +5940,13 @@
         <v>4834</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>318</v>
+        <v>446</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -5970,13 +5955,13 @@
         <v>10068</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6032,7 +6017,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6044,13 +6029,13 @@
         <v>182950</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H12" s="7">
         <v>214</v>
@@ -6059,13 +6044,13 @@
         <v>163330</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="M12" s="7">
         <v>435</v>
@@ -6074,13 +6059,13 @@
         <v>346281</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>460</v>
+        <v>333</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,13 +6080,13 @@
         <v>14837</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>254</v>
+        <v>459</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -6110,13 +6095,13 @@
         <v>8079</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>466</v>
+        <v>86</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -6125,13 +6110,13 @@
         <v>22916</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>469</v>
+        <v>297</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>121</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6146,13 +6131,13 @@
         <v>3789</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>472</v>
+        <v>302</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -6161,13 +6146,13 @@
         <v>5536</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -6176,13 +6161,13 @@
         <v>9325</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>469</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,7 +6223,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6250,13 +6235,13 @@
         <v>266835</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>478</v>
+        <v>278</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="H16" s="7">
         <v>310</v>
@@ -6265,13 +6250,13 @@
         <v>229274</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="M16" s="7">
         <v>623</v>
@@ -6280,13 +6265,13 @@
         <v>496109</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6301,13 +6286,13 @@
         <v>12736</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -6316,13 +6301,13 @@
         <v>28616</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -6331,13 +6316,13 @@
         <v>41353</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6352,13 +6337,13 @@
         <v>9853</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>96</v>
+        <v>491</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -6367,13 +6352,13 @@
         <v>2742</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -6382,13 +6367,13 @@
         <v>12595</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>89</v>
+        <v>495</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6456,13 +6441,13 @@
         <v>656340</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H20" s="7">
         <v>856</v>
@@ -6471,13 +6456,13 @@
         <v>586883</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M20" s="7">
         <v>1740</v>
@@ -6486,13 +6471,13 @@
         <v>1243224</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6507,13 +6492,13 @@
         <v>47132</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>512</v>
+        <v>369</v>
       </c>
       <c r="H21" s="7">
         <v>62</v>
@@ -6522,13 +6507,13 @@
         <v>50061</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>514</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>464</v>
+        <v>509</v>
       </c>
       <c r="M21" s="7">
         <v>125</v>
@@ -6537,13 +6522,13 @@
         <v>97193</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>294</v>
+        <v>235</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6558,13 +6543,13 @@
         <v>21329</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>203</v>
+        <v>397</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -6573,13 +6558,13 @@
         <v>15596</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="M22" s="7">
         <v>53</v>
@@ -6588,13 +6573,13 @@
         <v>36925</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6650,7 +6635,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP05A02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP05A02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{533E2AC3-01BA-4592-9BCE-61F58353B993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57AF19F1-6EA5-411F-8C16-5EBA3F09065A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F04268C5-B0FF-4A41-BCEA-F4E8DAE9A7EE}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{568D772F-EE59-407E-88C9-FADED7835740}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -44,10 +44,10 @@
     <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,1528 +74,1528 @@
     <t>Nada</t>
   </si>
   <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
     <t>73,14%</t>
   </si>
   <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
   </si>
   <si>
     <t>72,9%</t>
   </si>
   <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
   </si>
   <si>
     <t>Algo</t>
   </si>
   <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
     <t>19,83%</t>
   </si>
   <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
     <t>14,49%</t>
   </si>
   <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2016 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2016 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
   </si>
 </sst>
 </file>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE25AF64-1FAF-444B-BD55-40896E4A4BDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A5A2FB-9B58-463C-94DF-0C316CDBA888}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2125,10 +2125,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D4" s="7">
-        <v>88781</v>
+        <v>76783</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2140,10 +2140,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="I4" s="7">
-        <v>76783</v>
+        <v>88781</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2176,10 +2176,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" s="7">
-        <v>24069</v>
+        <v>22497</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2191,10 +2191,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I5" s="7">
-        <v>22497</v>
+        <v>24069</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2227,10 +2227,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" s="7">
-        <v>8530</v>
+        <v>6442</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2242,10 +2242,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I6" s="7">
-        <v>6442</v>
+        <v>8530</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2278,25 +2278,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>161</v>
+      </c>
+      <c r="D7" s="7">
+        <v>105723</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>182</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>121380</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>161</v>
-      </c>
-      <c r="I7" s="7">
-        <v>105723</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2331,10 +2331,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="D8" s="7">
-        <v>202415</v>
+        <v>188205</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2346,10 +2346,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="I8" s="7">
-        <v>188205</v>
+        <v>202415</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -2358,7 +2358,7 @@
         <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>587</v>
@@ -2367,13 +2367,13 @@
         <v>390621</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,34 +2382,34 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>79</v>
+      </c>
+      <c r="D9" s="7">
+        <v>53364</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="7">
         <v>61</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>40846</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="7">
-        <v>79</v>
-      </c>
-      <c r="I9" s="7">
-        <v>53364</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>140</v>
@@ -2418,13 +2418,13 @@
         <v>94209</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,34 +2433,34 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7">
+        <v>10444</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="7">
         <v>14</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>9150</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="7">
-        <v>16</v>
-      </c>
-      <c r="I10" s="7">
-        <v>10444</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -2469,13 +2469,13 @@
         <v>19594</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,25 +2484,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>377</v>
+      </c>
+      <c r="D11" s="7">
+        <v>252013</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>380</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>252411</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>377</v>
-      </c>
-      <c r="I11" s="7">
-        <v>252013</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2531,40 +2531,40 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>140</v>
+      </c>
+      <c r="D12" s="7">
+        <v>94515</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="7">
         <v>159</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>107004</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="7">
-        <v>140</v>
-      </c>
-      <c r="I12" s="7">
-        <v>94515</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>299</v>
@@ -2573,13 +2573,13 @@
         <v>201519</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,34 +2588,34 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>44</v>
+      </c>
+      <c r="D13" s="7">
+        <v>28527</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="7">
         <v>42</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>27472</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" s="7">
-        <v>44</v>
-      </c>
-      <c r="I13" s="7">
-        <v>28527</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>86</v>
@@ -2624,13 +2624,13 @@
         <v>55999</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,34 +2639,34 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>7</v>
+      </c>
+      <c r="D14" s="7">
+        <v>4506</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="7">
         <v>10</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>6344</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="7">
-        <v>7</v>
-      </c>
-      <c r="I14" s="7">
-        <v>4506</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -2675,13 +2675,13 @@
         <v>10850</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,25 +2690,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>191</v>
+      </c>
+      <c r="D15" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>211</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>140820</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>191</v>
-      </c>
-      <c r="I15" s="7">
-        <v>127548</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -2737,40 +2737,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>220</v>
+      </c>
+      <c r="D16" s="7">
+        <v>148366</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="7">
         <v>244</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>162354</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H16" s="7">
-        <v>220</v>
-      </c>
-      <c r="I16" s="7">
-        <v>148366</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>464</v>
@@ -2779,13 +2779,13 @@
         <v>310719</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,34 +2794,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>49</v>
+      </c>
+      <c r="D17" s="7">
+        <v>33898</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="7">
         <v>55</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>36265</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H17" s="7">
-        <v>49</v>
-      </c>
-      <c r="I17" s="7">
-        <v>33898</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>104</v>
@@ -2830,13 +2830,13 @@
         <v>70163</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,34 +2845,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>17</v>
+      </c>
+      <c r="D18" s="7">
+        <v>11833</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" s="7">
         <v>11</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>7430</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" s="7">
-        <v>17</v>
-      </c>
-      <c r="I18" s="7">
-        <v>11833</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="M18" s="7">
         <v>28</v>
@@ -2881,13 +2881,13 @@
         <v>19263</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,25 +2896,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>286</v>
+      </c>
+      <c r="D19" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>310</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>206049</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>286</v>
-      </c>
-      <c r="I19" s="7">
-        <v>194097</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -2949,34 +2949,34 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>759</v>
+      </c>
+      <c r="D20" s="7">
+        <v>507869</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="7">
         <v>841</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>560554</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H20" s="7">
-        <v>759</v>
-      </c>
-      <c r="I20" s="7">
-        <v>507869</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>1600</v>
@@ -2985,13 +2985,13 @@
         <v>1068423</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,34 +3000,34 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>206</v>
+      </c>
+      <c r="D21" s="7">
+        <v>138287</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" s="7">
         <v>194</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>128652</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H21" s="7">
-        <v>206</v>
-      </c>
-      <c r="I21" s="7">
-        <v>138287</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>400</v>
@@ -3036,13 +3036,13 @@
         <v>266938</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,34 +3051,34 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>50</v>
+      </c>
+      <c r="D22" s="7">
+        <v>33226</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="7">
         <v>48</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>31454</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H22" s="7">
-        <v>50</v>
-      </c>
-      <c r="I22" s="7">
-        <v>33226</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>144</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>98</v>
@@ -3087,13 +3087,13 @@
         <v>64680</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,25 +3102,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1015</v>
+      </c>
+      <c r="D23" s="7">
+        <v>679381</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1083</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>720660</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1015</v>
-      </c>
-      <c r="I23" s="7">
-        <v>679381</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -3149,7 +3149,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3169,7 +3169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36E2A2C-2230-46DB-BCBE-AD5BE104B18C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2817184-1ECC-4930-88FA-EC1EF83134D8}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3186,7 +3186,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3287,34 +3287,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>186</v>
+      </c>
+      <c r="D4" s="7">
+        <v>123916</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="7">
         <v>176</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>124780</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H4" s="7">
-        <v>186</v>
-      </c>
-      <c r="I4" s="7">
-        <v>123916</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M4" s="7">
         <v>362</v>
@@ -3323,13 +3323,13 @@
         <v>248696</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,34 +3338,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>26</v>
+      </c>
+      <c r="D5" s="7">
+        <v>18393</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" s="7">
         <v>25</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>17118</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H5" s="7">
-        <v>26</v>
-      </c>
-      <c r="I5" s="7">
-        <v>18393</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M5" s="7">
         <v>51</v>
@@ -3374,13 +3374,13 @@
         <v>35510</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,34 +3389,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4452</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H6" s="7">
         <v>6</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>4093</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H6" s="7">
-        <v>7</v>
-      </c>
-      <c r="I6" s="7">
-        <v>4452</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -3425,13 +3425,13 @@
         <v>8545</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,25 +3440,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>219</v>
+      </c>
+      <c r="D7" s="7">
+        <v>146761</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>207</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>145990</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>219</v>
-      </c>
-      <c r="I7" s="7">
-        <v>146761</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -3493,34 +3493,34 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>283</v>
+      </c>
+      <c r="D8" s="7">
+        <v>198022</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H8" s="7">
         <v>309</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>221655</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H8" s="7">
-        <v>283</v>
-      </c>
-      <c r="I8" s="7">
-        <v>198022</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M8" s="7">
         <v>592</v>
@@ -3529,13 +3529,13 @@
         <v>419677</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,34 +3544,34 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>48</v>
+      </c>
+      <c r="D9" s="7">
+        <v>32226</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H9" s="7">
         <v>53</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>37711</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H9" s="7">
-        <v>48</v>
-      </c>
-      <c r="I9" s="7">
-        <v>32226</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c r="M9" s="7">
         <v>101</v>
@@ -3580,13 +3580,13 @@
         <v>69937</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,34 +3595,34 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7">
+        <v>6001</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H10" s="7">
         <v>12</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>9625</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H10" s="7">
-        <v>9</v>
-      </c>
-      <c r="I10" s="7">
-        <v>6001</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -3631,13 +3631,13 @@
         <v>15627</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,25 +3646,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>340</v>
+      </c>
+      <c r="D11" s="7">
+        <v>236250</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>374</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>268991</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>340</v>
-      </c>
-      <c r="I11" s="7">
-        <v>236250</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -3693,40 +3693,40 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>194</v>
+      </c>
+      <c r="D12" s="7">
+        <v>136359</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H12" s="7">
         <v>189</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>131292</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H12" s="7">
-        <v>194</v>
-      </c>
-      <c r="I12" s="7">
-        <v>136359</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>205</v>
+        <v>48</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M12" s="7">
         <v>383</v>
@@ -3735,13 +3735,13 @@
         <v>267651</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,34 +3750,34 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>21</v>
+      </c>
+      <c r="D13" s="7">
+        <v>14977</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H13" s="7">
         <v>33</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>22980</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H13" s="7">
-        <v>21</v>
-      </c>
-      <c r="I13" s="7">
-        <v>14977</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -3786,13 +3786,13 @@
         <v>37958</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,34 +3801,34 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7">
+        <v>5707</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H14" s="7">
         <v>6</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>4298</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H14" s="7">
-        <v>8</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5707</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -3837,13 +3837,13 @@
         <v>10005</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>120</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,25 +3852,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>223</v>
+      </c>
+      <c r="D15" s="7">
+        <v>157043</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>228</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>158571</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>223</v>
-      </c>
-      <c r="I15" s="7">
-        <v>157043</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -3899,40 +3899,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>192</v>
+      </c>
+      <c r="D16" s="7">
+        <v>134364</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="D16" s="7">
+      <c r="H16" s="7">
+        <v>230</v>
+      </c>
+      <c r="I16" s="7">
         <v>156542</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H16" s="7">
-        <v>192</v>
-      </c>
-      <c r="I16" s="7">
-        <v>134364</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M16" s="7">
         <v>422</v>
@@ -3941,13 +3941,13 @@
         <v>290907</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,34 +3956,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>37</v>
+      </c>
+      <c r="D17" s="7">
+        <v>27015</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H17" s="7">
         <v>28</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>18584</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H17" s="7">
-        <v>37</v>
-      </c>
-      <c r="I17" s="7">
-        <v>27015</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M17" s="7">
         <v>65</v>
@@ -3992,13 +3992,13 @@
         <v>45599</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,34 +4007,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>13</v>
+      </c>
+      <c r="D18" s="7">
+        <v>9189</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H18" s="7">
         <v>7</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>4829</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H18" s="7">
-        <v>13</v>
-      </c>
-      <c r="I18" s="7">
-        <v>9189</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -4043,13 +4043,13 @@
         <v>14018</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,25 +4058,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>242</v>
+      </c>
+      <c r="D19" s="7">
+        <v>170569</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>265</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>179955</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>242</v>
-      </c>
-      <c r="I19" s="7">
-        <v>170569</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4111,34 +4111,34 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>855</v>
+      </c>
+      <c r="D20" s="7">
+        <v>592662</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H20" s="7">
         <v>904</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>634269</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H20" s="7">
-        <v>855</v>
-      </c>
-      <c r="I20" s="7">
-        <v>592662</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
         <v>1759</v>
@@ -4147,13 +4147,13 @@
         <v>1226931</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,34 +4162,34 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>132</v>
+      </c>
+      <c r="D21" s="7">
+        <v>92612</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H21" s="7">
         <v>139</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>96392</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H21" s="7">
-        <v>132</v>
-      </c>
-      <c r="I21" s="7">
-        <v>92612</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>265</v>
+        <v>190</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>266</v>
+        <v>83</v>
       </c>
       <c r="M21" s="7">
         <v>271</v>
@@ -4213,34 +4213,34 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>37</v>
+      </c>
+      <c r="D22" s="7">
+        <v>25350</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H22" s="7">
         <v>31</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>22845</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H22" s="7">
-        <v>37</v>
-      </c>
-      <c r="I22" s="7">
-        <v>25350</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>169</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M22" s="7">
         <v>68</v>
@@ -4249,13 +4249,13 @@
         <v>48195</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,25 +4264,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1024</v>
+      </c>
+      <c r="D23" s="7">
+        <v>710623</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1074</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>753507</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1024</v>
-      </c>
-      <c r="I23" s="7">
-        <v>710623</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4331,7 +4331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB078811-F597-4268-ACA8-B3BE5238CC68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FA826C-938A-4FCB-8F84-ABA8CD1612AD}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4348,7 +4348,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4449,34 +4449,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>184</v>
+      </c>
+      <c r="D4" s="7">
+        <v>113900</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H4" s="7">
         <v>164</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>110091</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="H4" s="7">
-        <v>184</v>
-      </c>
-      <c r="I4" s="7">
-        <v>113900</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M4" s="7">
         <v>348</v>
@@ -4485,13 +4485,13 @@
         <v>223991</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,34 +4500,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7">
+        <v>13980</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H5" s="7">
         <v>21</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>12424</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="H5" s="7">
-        <v>22</v>
-      </c>
-      <c r="I5" s="7">
-        <v>13980</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M5" s="7">
         <v>43</v>
@@ -4536,13 +4536,13 @@
         <v>26404</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4551,13 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>1649</v>
+        <v>3774</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>196</v>
+        <v>295</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>296</v>
@@ -4566,10 +4566,10 @@
         <v>297</v>
       </c>
       <c r="H6" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>3774</v>
+        <v>1649</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>298</v>
@@ -4590,10 +4590,10 @@
         <v>301</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,25 +4602,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>211</v>
+      </c>
+      <c r="D7" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>187</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>124164</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>211</v>
-      </c>
-      <c r="I7" s="7">
-        <v>131654</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4655,34 +4655,34 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>292</v>
+      </c>
+      <c r="D8" s="7">
+        <v>185834</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H8" s="7">
         <v>340</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>230579</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="H8" s="7">
-        <v>292</v>
-      </c>
-      <c r="I8" s="7">
-        <v>185834</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M8" s="7">
         <v>632</v>
@@ -4691,13 +4691,13 @@
         <v>416413</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,34 +4706,34 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>29</v>
+      </c>
+      <c r="D9" s="7">
+        <v>17973</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H9" s="7">
         <v>32</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>22599</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H9" s="7">
-        <v>29</v>
-      </c>
-      <c r="I9" s="7">
-        <v>17973</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M9" s="7">
         <v>61</v>
@@ -4742,13 +4742,13 @@
         <v>40572</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,13 +4757,13 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>4883</v>
+        <v>6139</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>321</v>
+        <v>175</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>322</v>
@@ -4772,19 +4772,19 @@
         <v>323</v>
       </c>
       <c r="H10" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>6139</v>
+        <v>4883</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>173</v>
+        <v>324</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -4793,13 +4793,13 @@
         <v>11022</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,25 +4808,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>331</v>
+      </c>
+      <c r="D11" s="7">
+        <v>209946</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>380</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>258061</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>331</v>
-      </c>
-      <c r="I11" s="7">
-        <v>209946</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -4855,40 +4855,40 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>238</v>
+      </c>
+      <c r="D12" s="7">
+        <v>165798</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H12" s="7">
         <v>225</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>160574</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="H12" s="7">
-        <v>238</v>
-      </c>
-      <c r="I12" s="7">
-        <v>165798</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M12" s="7">
         <v>463</v>
@@ -4897,13 +4897,13 @@
         <v>326372</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4912,25 +4912,25 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D13" s="7">
-        <v>21134</v>
+        <v>18031</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>338</v>
+        <v>62</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>339</v>
       </c>
       <c r="H13" s="7">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7">
-        <v>18031</v>
+        <v>21134</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>340</v>
@@ -4963,34 +4963,34 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7">
+        <v>5070</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H14" s="7">
         <v>9</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>6864</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="H14" s="7">
-        <v>8</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5070</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>349</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -4999,13 +4999,13 @@
         <v>11933</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>353</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,25 +5014,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>272</v>
+      </c>
+      <c r="D15" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>263</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>188572</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>272</v>
-      </c>
-      <c r="I15" s="7">
-        <v>188899</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5061,40 +5061,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>210</v>
+      </c>
+      <c r="D16" s="7">
+        <v>147544</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H16" s="7">
         <v>207</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>153244</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="H16" s="7">
-        <v>210</v>
-      </c>
-      <c r="I16" s="7">
-        <v>147544</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="M16" s="7">
         <v>417</v>
@@ -5103,13 +5103,13 @@
         <v>300788</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,34 +5118,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>27</v>
+      </c>
+      <c r="D17" s="7">
+        <v>18955</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H17" s="7">
         <v>25</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>18395</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="H17" s="7">
-        <v>27</v>
-      </c>
-      <c r="I17" s="7">
-        <v>18955</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>367</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="M17" s="7">
         <v>52</v>
@@ -5154,13 +5154,13 @@
         <v>37349</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,34 +5169,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>8</v>
+      </c>
+      <c r="D18" s="7">
+        <v>5634</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H18" s="7">
         <v>3</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>2409</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="7">
-        <v>8</v>
-      </c>
-      <c r="I18" s="7">
-        <v>5634</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -5205,13 +5205,13 @@
         <v>8043</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,25 +5220,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>245</v>
+      </c>
+      <c r="D19" s="7">
+        <v>172133</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>235</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>174048</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>245</v>
-      </c>
-      <c r="I19" s="7">
-        <v>172133</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5273,34 +5273,34 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>924</v>
+      </c>
+      <c r="D20" s="7">
+        <v>613077</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H20" s="7">
         <v>936</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>654487</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="H20" s="7">
-        <v>924</v>
-      </c>
-      <c r="I20" s="7">
-        <v>613077</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="M20" s="7">
         <v>1860</v>
@@ -5309,13 +5309,13 @@
         <v>1267563</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,34 +5324,34 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>104</v>
+      </c>
+      <c r="D21" s="7">
+        <v>68939</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H21" s="7">
         <v>107</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>74552</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H21" s="7">
-        <v>104</v>
-      </c>
-      <c r="I21" s="7">
-        <v>68939</v>
-      </c>
       <c r="J21" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M21" s="7">
         <v>211</v>
@@ -5360,13 +5360,13 @@
         <v>143491</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,13 +5375,13 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D22" s="7">
-        <v>15805</v>
+        <v>20617</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>301</v>
+        <v>393</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>394</v>
@@ -5390,19 +5390,19 @@
         <v>395</v>
       </c>
       <c r="H22" s="7">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I22" s="7">
-        <v>20617</v>
+        <v>15805</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>397</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>398</v>
+        <v>225</v>
       </c>
       <c r="M22" s="7">
         <v>53</v>
@@ -5411,13 +5411,13 @@
         <v>36422</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,25 +5426,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1059</v>
+      </c>
+      <c r="D23" s="7">
+        <v>702633</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1065</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>744844</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1059</v>
-      </c>
-      <c r="I23" s="7">
-        <v>702633</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -5473,7 +5473,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -5493,7 +5493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76ABC51E-768E-4B24-8980-31691A1E9642}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3142D88B-58AA-4FA2-864C-0C7C44509950}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5510,7 +5510,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5611,49 +5611,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>95</v>
+      </c>
+      <c r="D4" s="7">
+        <v>49304</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H4" s="7">
         <v>103</v>
       </c>
-      <c r="D4" s="7">
-        <v>51038</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="I4" s="7">
+        <v>53713</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="H4" s="7">
-        <v>95</v>
-      </c>
-      <c r="I4" s="7">
-        <v>49284</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M4" s="7">
         <v>198</v>
       </c>
       <c r="N4" s="7">
-        <v>100321</v>
+        <v>103017</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5662,49 +5662,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5738</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H5" s="7">
         <v>8</v>
       </c>
-      <c r="D5" s="7">
-        <v>5012</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>5195</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="H5" s="7">
-        <v>10</v>
-      </c>
-      <c r="I5" s="7">
-        <v>5602</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
       </c>
       <c r="N5" s="7">
-        <v>10613</v>
+        <v>10933</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5713,49 +5713,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2469</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="H6" s="7">
         <v>5</v>
       </c>
-      <c r="D6" s="7">
-        <v>2453</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="I6" s="7">
+        <v>2537</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="H6" s="7">
-        <v>4</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2483</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
       </c>
       <c r="N6" s="7">
-        <v>4937</v>
+        <v>5006</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5764,25 +5764,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>109</v>
+      </c>
+      <c r="D7" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>116</v>
       </c>
-      <c r="D7" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>109</v>
-      </c>
       <c r="I7" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -5797,7 +5797,7 @@
         <v>225</v>
       </c>
       <c r="N7" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -5817,49 +5817,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>237</v>
+      </c>
+      <c r="D8" s="7">
+        <v>145455</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="H8" s="7">
         <v>247</v>
       </c>
-      <c r="D8" s="7">
-        <v>155518</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>161568</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="H8" s="7">
-        <v>237</v>
-      </c>
-      <c r="I8" s="7">
-        <v>144995</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="M8" s="7">
         <v>484</v>
       </c>
       <c r="N8" s="7">
-        <v>300512</v>
+        <v>307024</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5868,31 +5868,31 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7">
+        <v>7759</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H9" s="7">
         <v>22</v>
       </c>
-      <c r="D9" s="7">
-        <v>14547</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="I9" s="7">
+        <v>15510</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="H9" s="7">
-        <v>13</v>
-      </c>
-      <c r="I9" s="7">
-        <v>7764</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>440</v>
@@ -5901,16 +5901,16 @@
         <v>35</v>
       </c>
       <c r="N9" s="7">
-        <v>22311</v>
+        <v>23269</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>441</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,7 +5922,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>5234</v>
+        <v>4668</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>443</v>
@@ -5931,37 +5931,37 @@
         <v>444</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>115</v>
+        <v>369</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>4834</v>
+        <v>5476</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>373</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>446</v>
+        <v>369</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
       </c>
       <c r="N10" s="7">
-        <v>10068</v>
+        <v>10144</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,25 +5970,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>257</v>
+      </c>
+      <c r="D11" s="7">
+        <v>157882</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>276</v>
       </c>
-      <c r="D11" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>257</v>
-      </c>
       <c r="I11" s="7">
-        <v>157593</v>
+        <v>182554</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -6003,7 +6003,7 @@
         <v>533</v>
       </c>
       <c r="N11" s="7">
-        <v>332892</v>
+        <v>340437</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -6017,55 +6017,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>214</v>
+      </c>
+      <c r="D12" s="7">
+        <v>160306</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="H12" s="7">
         <v>221</v>
       </c>
-      <c r="D12" s="7">
-        <v>182950</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="I12" s="7">
+        <v>190599</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="H12" s="7">
-        <v>214</v>
-      </c>
-      <c r="I12" s="7">
-        <v>163330</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>455</v>
       </c>
       <c r="M12" s="7">
         <v>435</v>
       </c>
       <c r="N12" s="7">
-        <v>346281</v>
+        <v>350904</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>333</v>
+        <v>455</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,31 +6074,31 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>11</v>
+      </c>
+      <c r="D13" s="7">
+        <v>7991</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="H13" s="7">
         <v>16</v>
       </c>
-      <c r="D13" s="7">
-        <v>14837</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>17128</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="H13" s="7">
-        <v>11</v>
-      </c>
-      <c r="I13" s="7">
-        <v>8079</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>462</v>
@@ -6107,16 +6107,16 @@
         <v>27</v>
       </c>
       <c r="N13" s="7">
-        <v>22916</v>
+        <v>25119</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>463</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>297</v>
+        <v>464</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,49 +6125,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>9</v>
+      </c>
+      <c r="D14" s="7">
+        <v>5592</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="H14" s="7">
         <v>5</v>
       </c>
-      <c r="D14" s="7">
-        <v>3789</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="H14" s="7">
-        <v>9</v>
-      </c>
       <c r="I14" s="7">
-        <v>5536</v>
+        <v>3820</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>467</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>468</v>
+        <v>66</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
       </c>
       <c r="N14" s="7">
-        <v>9325</v>
+        <v>9412</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,25 +6176,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>234</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173888</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>242</v>
       </c>
-      <c r="D15" s="7">
-        <v>201577</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>234</v>
-      </c>
       <c r="I15" s="7">
-        <v>176945</v>
+        <v>211547</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -6209,7 +6209,7 @@
         <v>476</v>
       </c>
       <c r="N15" s="7">
-        <v>378522</v>
+        <v>385434</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -6223,55 +6223,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>310</v>
+      </c>
+      <c r="D16" s="7">
+        <v>226191</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="H16" s="7">
         <v>313</v>
       </c>
-      <c r="D16" s="7">
-        <v>266835</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="H16" s="7">
-        <v>310</v>
-      </c>
       <c r="I16" s="7">
-        <v>229274</v>
+        <v>281933</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>474</v>
+        <v>309</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M16" s="7">
         <v>623</v>
       </c>
       <c r="N16" s="7">
-        <v>496109</v>
+        <v>508122</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,49 +6280,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>28</v>
+      </c>
+      <c r="D17" s="7">
+        <v>46569</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="H17" s="7">
         <v>17</v>
       </c>
-      <c r="D17" s="7">
-        <v>12736</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="H17" s="7">
-        <v>28</v>
-      </c>
       <c r="I17" s="7">
-        <v>28616</v>
+        <v>13345</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
       </c>
       <c r="N17" s="7">
-        <v>41353</v>
+        <v>59915</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,49 +6331,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>9853</v>
+        <v>2698</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>489</v>
+        <v>223</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>490</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H18" s="7">
+        <v>12</v>
+      </c>
+      <c r="I18" s="7">
+        <v>10205</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="H18" s="7">
-        <v>4</v>
-      </c>
-      <c r="I18" s="7">
-        <v>2742</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
       </c>
       <c r="N18" s="7">
-        <v>12595</v>
+        <v>12903</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>470</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>496</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6385,7 +6385,7 @@
         <v>342</v>
       </c>
       <c r="D19" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -6400,7 +6400,7 @@
         <v>342</v>
       </c>
       <c r="I19" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -6415,7 +6415,7 @@
         <v>684</v>
       </c>
       <c r="N19" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -6435,49 +6435,49 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>856</v>
+      </c>
+      <c r="D20" s="7">
+        <v>581254</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="H20" s="7">
         <v>884</v>
       </c>
-      <c r="D20" s="7">
-        <v>656340</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="I20" s="7">
+        <v>687812</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="H20" s="7">
-        <v>856</v>
-      </c>
-      <c r="I20" s="7">
-        <v>586883</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>502</v>
       </c>
       <c r="M20" s="7">
         <v>1740</v>
       </c>
       <c r="N20" s="7">
-        <v>1243224</v>
+        <v>1269068</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6486,43 +6486,43 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>62</v>
+      </c>
+      <c r="D21" s="7">
+        <v>68057</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="H21" s="7">
         <v>63</v>
       </c>
-      <c r="D21" s="7">
-        <v>47132</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="I21" s="7">
+        <v>51178</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="H21" s="7">
-        <v>62</v>
-      </c>
-      <c r="I21" s="7">
-        <v>50061</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="M21" s="7">
         <v>125</v>
       </c>
       <c r="N21" s="7">
-        <v>97193</v>
+        <v>119235</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>235</v>
+        <v>509</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>510</v>
@@ -6537,25 +6537,25 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D22" s="7">
-        <v>21329</v>
+        <v>15427</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>513</v>
       </c>
       <c r="H22" s="7">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I22" s="7">
-        <v>15596</v>
+        <v>22038</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>514</v>
@@ -6570,13 +6570,13 @@
         <v>53</v>
       </c>
       <c r="N22" s="7">
-        <v>36925</v>
+        <v>37465</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>243</v>
+        <v>517</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>517</v>
+        <v>426</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>518</v>
@@ -6588,25 +6588,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>942</v>
+      </c>
+      <c r="D23" s="7">
+        <v>664738</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>976</v>
       </c>
-      <c r="D23" s="7">
-        <v>724802</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>942</v>
-      </c>
       <c r="I23" s="7">
-        <v>652540</v>
+        <v>761028</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -6621,7 +6621,7 @@
         <v>1918</v>
       </c>
       <c r="N23" s="7">
-        <v>1377343</v>
+        <v>1425767</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -6635,7 +6635,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
